--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3221.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3221.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.34571615300873</v>
+        <v>1.561645865440369</v>
       </c>
       <c r="B1">
-        <v>3.172003614034625</v>
+        <v>1.745550513267517</v>
       </c>
       <c r="C1">
-        <v>5.093263816003411</v>
+        <v>2.115542650222778</v>
       </c>
       <c r="D1">
-        <v>2.653231943181694</v>
+        <v>2.30855655670166</v>
       </c>
       <c r="E1">
-        <v>1.270006601792479</v>
+        <v>1.441492676734924</v>
       </c>
     </row>
   </sheetData>
